--- a/Week6/Day1/ExerciseXP/WrongMove(ex4).xlsx
+++ b/Week6/Day1/ExerciseXP/WrongMove(ex4).xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Exercises\Excel 365\Pivoting\Property\Question\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margotiamanova/Desktop/DI-Bootcamp/Week6/Day1/ExerciseXP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577CE093-20E8-433C-88AE-F532AC6C8EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075337C-2587-F94F-9582-AB2392FB227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Properties" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
+    <sheet name="Properties" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="9.9999999999999995E-7"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="31" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="84">
   <si>
     <t>PostCode</t>
   </si>
@@ -259,6 +263,33 @@
   </si>
   <si>
     <t>Bathrooms</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Field1</t>
+  </si>
+  <si>
+    <t>Sum of Total Rooms</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Total Sum of Field1</t>
+  </si>
+  <si>
+    <t>Total Sum of Total Rooms</t>
+  </si>
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>Group1 Total</t>
   </si>
 </sst>
 </file>
@@ -335,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -358,11 +389,20 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,6 +418,1034 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45732.718198263887" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="56" xr:uid="{D09D0692-0969-704A-9549-C60BC2ECCA0B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:K59" sheet="Properties"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="PostCode" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Location" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Town"/>
+        <s v="Village"/>
+        <s v="Countryside"/>
+        <s v="Remote"/>
+      </sharedItems>
+      <fieldGroup par="13"/>
+    </cacheField>
+    <cacheField name="Bedrooms" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="4"/>
+        <n v="3"/>
+        <n v="2"/>
+        <n v="1"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Bathrooms" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
+        <n v="2"/>
+        <n v="1"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Reception Rooms" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
+        <n v="3"/>
+        <n v="2"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Garden Size" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Date on Market" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-06-05T00:00:00" maxDate="2022-10-18T00:00:00"/>
+    </cacheField>
+    <cacheField name="Date Sold" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1903-12-30T00:00:00" maxDate="2022-12-19T00:00:00"/>
+    </cacheField>
+    <cacheField name="Asking Price" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="135000" maxValue="525750"/>
+    </cacheField>
+    <cacheField name="Sale Price" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="158500" maxValue="495000"/>
+    </cacheField>
+    <cacheField name="Field1" numFmtId="0" formula=" 0" databaseField="0"/>
+    <cacheField name="Total Rooms" numFmtId="0" formula="Bedrooms +Bathrooms +'Reception Rooms'" databaseField="0"/>
+    <cacheField name="Location2" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <discretePr count="4">
+          <x v="0"/>
+          <x v="0"/>
+          <x v="0"/>
+          <x v="0"/>
+        </discretePr>
+        <groupItems count="1">
+          <s v="Group1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="56">
+  <r>
+    <s v="SK13 7AZ"/>
+    <s v="Detatched"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Medium"/>
+    <d v="2021-11-25T00:00:00"/>
+    <m/>
+    <n v="345000"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK22 9GT"/>
+    <s v="Semi-detatched"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Small"/>
+    <d v="2021-07-17T00:00:00"/>
+    <d v="2022-01-31T00:00:00"/>
+    <n v="245000"/>
+    <n v="238500"/>
+  </r>
+  <r>
+    <s v="SK13 6DD"/>
+    <s v="Terraced"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Small"/>
+    <d v="2021-10-23T00:00:00"/>
+    <d v="2021-12-18T00:00:00"/>
+    <n v="199000"/>
+    <n v="199000"/>
+  </r>
+  <r>
+    <s v="SK14 8DS"/>
+    <s v="Detatched"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2022-10-17T00:00:00"/>
+    <d v="2022-01-22T00:00:00"/>
+    <n v="398000"/>
+    <n v="387500"/>
+  </r>
+  <r>
+    <s v="SK13 7CW"/>
+    <s v="Semi-detatched"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-11-28T00:00:00"/>
+    <d v="2022-12-18T00:00:00"/>
+    <n v="329000"/>
+    <n v="319500"/>
+  </r>
+  <r>
+    <s v="SK22 3YT"/>
+    <s v="Detatched"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Large"/>
+    <d v="2021-10-12T00:00:00"/>
+    <m/>
+    <n v="478500"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 4DF"/>
+    <s v="Terraced"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Small"/>
+    <d v="2021-09-04T00:00:00"/>
+    <d v="2021-01-15T00:00:00"/>
+    <n v="213000"/>
+    <n v="199500"/>
+  </r>
+  <r>
+    <s v="SK14 7AD"/>
+    <s v="Semi-detatched"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-10-28T00:00:00"/>
+    <d v="2022-02-17T00:00:00"/>
+    <n v="278500"/>
+    <n v="277000"/>
+  </r>
+  <r>
+    <s v="SK13 2AA"/>
+    <s v="Semi-detatched"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-08-10T00:00:00"/>
+    <m/>
+    <n v="278500"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 5YY"/>
+    <s v="Terraced"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Small"/>
+    <d v="2021-10-29T00:00:00"/>
+    <d v="2022-01-28T00:00:00"/>
+    <n v="176500"/>
+    <n v="174300"/>
+  </r>
+  <r>
+    <s v="SK14 9FT"/>
+    <s v="Bungalow"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-11-15T00:00:00"/>
+    <d v="2022-01-12T00:00:00"/>
+    <n v="223750"/>
+    <n v="219750"/>
+  </r>
+  <r>
+    <s v="SK23 4RF"/>
+    <s v="Flat"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="None"/>
+    <d v="2021-11-14T00:00:00"/>
+    <m/>
+    <n v="135000"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 1GG"/>
+    <s v="Terraced"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Small"/>
+    <d v="2022-01-04T00:00:00"/>
+    <d v="2022-01-18T00:00:00"/>
+    <n v="165900"/>
+    <n v="168000"/>
+  </r>
+  <r>
+    <s v="SK13 6YH"/>
+    <s v="Bungalow"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-09-14T00:00:00"/>
+    <d v="2021-12-27T00:00:00"/>
+    <n v="415500"/>
+    <n v="419500"/>
+  </r>
+  <r>
+    <s v="SK13 6YH"/>
+    <s v="Bungalow"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-09-14T00:00:00"/>
+    <d v="2021-12-27T00:00:00"/>
+    <n v="415500"/>
+    <n v="419500"/>
+  </r>
+  <r>
+    <s v="SK13 6YH"/>
+    <s v="Bungalow"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-09-14T00:00:00"/>
+    <d v="2021-12-27T00:00:00"/>
+    <n v="415500"/>
+    <n v="419500"/>
+  </r>
+  <r>
+    <s v="SK13 6YH"/>
+    <s v="Bungalow"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-09-10T00:00:00"/>
+    <d v="1903-12-30T00:00:00"/>
+    <n v="199500"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK22 8BN"/>
+    <s v="Flat"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="None"/>
+    <d v="2021-10-02T00:00:00"/>
+    <d v="2022-01-18T00:00:00"/>
+    <n v="175500"/>
+    <n v="169500"/>
+  </r>
+  <r>
+    <s v="SK14 7JJ"/>
+    <s v="Semi-detatched"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-12-20T00:00:00"/>
+    <d v="2022-02-14T00:00:00"/>
+    <n v="319750"/>
+    <n v="315750"/>
+  </r>
+  <r>
+    <s v="SK22 3LP"/>
+    <s v="Bungalow"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-10-14T00:00:00"/>
+    <m/>
+    <n v="289500"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 4DT"/>
+    <s v="Detatched"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Large"/>
+    <d v="2021-08-08T00:00:00"/>
+    <m/>
+    <n v="525750"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 9SS"/>
+    <s v="Detatched"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-11-13T00:00:00"/>
+    <d v="2022-02-24T00:00:00"/>
+    <n v="495000"/>
+    <n v="495000"/>
+  </r>
+  <r>
+    <s v="SK14 6HN"/>
+    <s v="Semi-detatched"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-08-05T00:00:00"/>
+    <d v="2022-01-14T00:00:00"/>
+    <n v="369500"/>
+    <n v="362500"/>
+  </r>
+  <r>
+    <s v="SK14 6HN"/>
+    <s v="Semi-detatched"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Small"/>
+    <d v="2022-01-03T00:00:00"/>
+    <d v="1903-12-30T00:00:00"/>
+    <n v="176500"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK23 3KM"/>
+    <s v="Terraced"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Small"/>
+    <d v="2021-09-01T00:00:00"/>
+    <m/>
+    <n v="142500"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 6YH"/>
+    <s v="Bungalow"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-09-14T00:00:00"/>
+    <d v="2021-12-27T00:00:00"/>
+    <n v="415500"/>
+    <n v="419500"/>
+  </r>
+  <r>
+    <s v="SK23 5WW"/>
+    <s v="Bungalow"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-10-16T00:00:00"/>
+    <d v="2022-02-12T00:00:00"/>
+    <n v="314250"/>
+    <n v="309750"/>
+  </r>
+  <r>
+    <s v="SK13 8FS"/>
+    <s v="Terraced"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Small"/>
+    <d v="2021-08-22T00:00:00"/>
+    <m/>
+    <n v="178500"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 4RL"/>
+    <s v="Semi-detatched"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2022-01-10T00:00:00"/>
+    <d v="2022-02-24T00:00:00"/>
+    <n v="305000"/>
+    <n v="302750"/>
+  </r>
+  <r>
+    <s v="SK14 7YT"/>
+    <s v="Detatched"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-10-30T00:00:00"/>
+    <d v="2022-02-14T00:00:00"/>
+    <n v="435000"/>
+    <n v="429500"/>
+  </r>
+  <r>
+    <s v="SK13 5EE"/>
+    <s v="Semi-detatched"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Medium"/>
+    <d v="2021-09-10T00:00:00"/>
+    <d v="2022-02-14T00:00:00"/>
+    <n v="385000"/>
+    <n v="375500"/>
+  </r>
+  <r>
+    <s v="SK23 4VS"/>
+    <s v="Detatched"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-09-04T00:00:00"/>
+    <d v="2021-10-16T00:00:00"/>
+    <n v="405000"/>
+    <n v="405000"/>
+  </r>
+  <r>
+    <s v="SK16 8NV"/>
+    <s v="Terraced"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Small"/>
+    <d v="2021-08-01T00:00:00"/>
+    <d v="2021-11-29T00:00:00"/>
+    <n v="159000"/>
+    <n v="158500"/>
+  </r>
+  <r>
+    <s v="SK14 3DD"/>
+    <s v="Semi-detatched"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-08-05T00:00:00"/>
+    <d v="2021-12-10T00:00:00"/>
+    <n v="278000"/>
+    <n v="276500"/>
+  </r>
+  <r>
+    <s v="SK13 4DE"/>
+    <s v="Terraced"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Small"/>
+    <d v="2021-07-02T00:00:00"/>
+    <d v="2022-02-24T00:00:00"/>
+    <n v="178600"/>
+    <n v="175500"/>
+  </r>
+  <r>
+    <s v="SK13 6LK"/>
+    <s v="Detatched"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-08-23T00:00:00"/>
+    <d v="2022-01-16T00:00:00"/>
+    <n v="435000"/>
+    <n v="431750"/>
+  </r>
+  <r>
+    <s v="SK13 9PF"/>
+    <s v="Semi-detatched"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-07-18T00:00:00"/>
+    <d v="2021-12-10T00:00:00"/>
+    <n v="345500"/>
+    <n v="342500"/>
+  </r>
+  <r>
+    <s v="SK14 8BM"/>
+    <s v="Detatched"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-08-22T00:00:00"/>
+    <d v="2021-12-18T00:00:00"/>
+    <n v="418500"/>
+    <n v="422500"/>
+  </r>
+  <r>
+    <s v="SK14 6DH"/>
+    <s v="Semi-detatched"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-11-15T00:00:00"/>
+    <m/>
+    <n v="375500"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 3SS"/>
+    <s v="Terraced"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Small"/>
+    <d v="2021-10-02T00:00:00"/>
+    <m/>
+    <n v="169500"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 6YH"/>
+    <s v="Bungalow"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-09-14T00:00:00"/>
+    <d v="2021-12-27T00:00:00"/>
+    <n v="415500"/>
+    <n v="419500"/>
+  </r>
+  <r>
+    <s v="SK13 4AK"/>
+    <s v="Bungalow"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-08-14T00:00:00"/>
+    <d v="2022-01-26T00:00:00"/>
+    <n v="298500"/>
+    <n v="298500"/>
+  </r>
+  <r>
+    <s v="SK13 4XC"/>
+    <s v="Semi-detatched"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-07-10T00:00:00"/>
+    <d v="2022-01-21T00:00:00"/>
+    <n v="331750"/>
+    <n v="330500"/>
+  </r>
+  <r>
+    <s v="SK14 6RL"/>
+    <s v="Detatched"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-08-02T00:00:00"/>
+    <d v="2021-12-10T00:00:00"/>
+    <n v="385500"/>
+    <n v="383500"/>
+  </r>
+  <r>
+    <s v="SK13 7PJ"/>
+    <s v="Semi-detatched"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-09-25T00:00:00"/>
+    <d v="2022-02-02T00:00:00"/>
+    <n v="322500"/>
+    <n v="319500"/>
+  </r>
+  <r>
+    <s v="SK13 6FD"/>
+    <s v="Semi-detatched"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Medium"/>
+    <d v="2021-08-04T00:00:00"/>
+    <d v="2021-11-15T00:00:00"/>
+    <n v="365500"/>
+    <n v="365500"/>
+  </r>
+  <r>
+    <s v="SK14 3FD"/>
+    <s v="Detatched"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Small"/>
+    <d v="2021-07-13T00:00:00"/>
+    <m/>
+    <n v="312750"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 2WD"/>
+    <s v="Detatched"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-06-23T00:00:00"/>
+    <d v="2022-01-03T00:00:00"/>
+    <n v="309500"/>
+    <n v="304500"/>
+  </r>
+  <r>
+    <s v="SK22 1XV"/>
+    <s v="Terraced"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Small"/>
+    <d v="2021-10-14T00:00:00"/>
+    <d v="2022-02-04T00:00:00"/>
+    <n v="204500"/>
+    <n v="203900"/>
+  </r>
+  <r>
+    <s v="SK13 5LS"/>
+    <s v="Semi-detatched"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-07-03T00:00:00"/>
+    <m/>
+    <n v="225500"/>
+    <m/>
+  </r>
+  <r>
+    <s v="SK13 6YH"/>
+    <s v="Bungalow"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-09-14T00:00:00"/>
+    <d v="2021-12-27T00:00:00"/>
+    <n v="415500"/>
+    <n v="419500"/>
+  </r>
+  <r>
+    <s v="SK13 6HH"/>
+    <s v="Semi-detatched"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Medium"/>
+    <d v="2021-08-31T00:00:00"/>
+    <d v="2021-10-04T00:00:00"/>
+    <n v="209500"/>
+    <n v="209500"/>
+  </r>
+  <r>
+    <s v="SK14 8GP"/>
+    <s v="Bungalow"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-10-11T00:00:00"/>
+    <d v="2022-01-14T00:00:00"/>
+    <n v="272500"/>
+    <n v="271500"/>
+  </r>
+  <r>
+    <s v="SK15 6YW"/>
+    <s v="Detatched"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Large"/>
+    <d v="2021-10-29T00:00:00"/>
+    <d v="2022-02-24T00:00:00"/>
+    <n v="389500"/>
+    <n v="395000"/>
+  </r>
+  <r>
+    <s v="SK13 4DD"/>
+    <s v="Semi-detatched"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Medium"/>
+    <d v="2021-06-05T00:00:00"/>
+    <d v="2022-01-22T00:00:00"/>
+    <n v="348500"/>
+    <n v="349500"/>
+  </r>
+  <r>
+    <s v="SK13 4RF"/>
+    <s v="Bungalow"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Small"/>
+    <d v="2022-01-31T00:00:00"/>
+    <d v="2022-03-14T00:00:00"/>
+    <n v="299950"/>
+    <n v="299950"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DD47ADE-A6CD-A042-B38C-F60BC4296F8A}" name="PivotTable7" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:M35" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="5"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="29">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="3">
+    <field x="-2"/>
+    <field x="13"/>
+    <field x="2"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x v="2"/>
+    </i>
+    <i r="2" i="1">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1" i="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Field1" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total Rooms" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,34 +1744,1315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD853B3-6D11-B64C-BF8E-76DCDA3197BF}">
+  <dimension ref="A3:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>3</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>3</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>3</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>3</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>3</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>3</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>25</v>
+      </c>
+      <c r="H10" s="15">
+        <v>9</v>
+      </c>
+      <c r="I10" s="15">
+        <v>31</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>65</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>8</v>
+      </c>
+      <c r="H11" s="15">
+        <v>9</v>
+      </c>
+      <c r="I11" s="15">
+        <v>20</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>37</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>8</v>
+      </c>
+      <c r="H12" s="15">
+        <v>4</v>
+      </c>
+      <c r="I12" s="15">
+        <v>20</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>32</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>5</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>5</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>17</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>11</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <v>28</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <v>5</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <v>10</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>2</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>12</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>6</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>18</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>3</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>97</v>
+      </c>
+      <c r="H17" s="15">
+        <v>21</v>
+      </c>
+      <c r="I17" s="15">
+        <v>71</v>
+      </c>
+      <c r="J17" s="15">
+        <v>12</v>
+      </c>
+      <c r="K17" s="15">
+        <v>201</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>6</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>12</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>18</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>2</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>6</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>12</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>18</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>2</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>91</v>
+      </c>
+      <c r="H20" s="15">
+        <v>21</v>
+      </c>
+      <c r="I20" s="15">
+        <v>59</v>
+      </c>
+      <c r="J20" s="15">
+        <v>12</v>
+      </c>
+      <c r="K20" s="15">
+        <v>183</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>1</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>24</v>
+      </c>
+      <c r="J21" s="15">
+        <v>12</v>
+      </c>
+      <c r="K21" s="15">
+        <v>36</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>2</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>91</v>
+      </c>
+      <c r="H22" s="15">
+        <v>21</v>
+      </c>
+      <c r="I22" s="15">
+        <v>35</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>147</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>4</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>16</v>
+      </c>
+      <c r="H23" s="15">
+        <v>25</v>
+      </c>
+      <c r="I23" s="15">
+        <v>40</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>81</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>1</v>
+      </c>
+      <c r="B24" s="15">
+        <v>0</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
+        <v>7</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>7</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>2</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <v>7</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>7</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>2</v>
+      </c>
+      <c r="B26" s="15">
+        <v>0</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>16</v>
+      </c>
+      <c r="H26" s="15">
+        <v>16</v>
+      </c>
+      <c r="I26" s="15">
+        <v>24</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>56</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>7</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <v>7</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>2</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>16</v>
+      </c>
+      <c r="H28" s="15">
+        <v>16</v>
+      </c>
+      <c r="I28" s="15">
+        <v>8</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>40</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>3</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15">
+        <v>9</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <v>9</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>3</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>9</v>
+      </c>
+      <c r="I30" s="15">
+        <v>9</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>18</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>2</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <v>9</v>
+      </c>
+      <c r="I31" s="15">
+        <v>9</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>18</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>5</v>
+      </c>
+      <c r="B32" s="15">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>10</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>10</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>3</v>
+      </c>
+      <c r="B33" s="15">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <v>10</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>10</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>2</v>
+      </c>
+      <c r="B34" s="15">
+        <v>0</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <v>10</v>
+      </c>
+      <c r="H34" s="15">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <v>10</v>
+      </c>
+      <c r="L34" s="15">
+        <v>0</v>
+      </c>
+      <c r="M34" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>148</v>
+      </c>
+      <c r="H35" s="15">
+        <v>55</v>
+      </c>
+      <c r="I35" s="15">
+        <v>145</v>
+      </c>
+      <c r="J35" s="15">
+        <v>12</v>
+      </c>
+      <c r="K35" s="15">
+        <v>360</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -737,9 +3086,8 @@
       <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,7 +3109,7 @@
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <v>44525</v>
       </c>
       <c r="I4" s="4"/>
@@ -770,7 +3118,7 @@
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -792,10 +3140,10 @@
       <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>44394</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>44592</v>
       </c>
       <c r="J5" s="9">
@@ -805,7 +3153,7 @@
         <v>238500</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -827,10 +3175,10 @@
       <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>44492</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <v>44548</v>
       </c>
       <c r="J6" s="9">
@@ -840,7 +3188,7 @@
         <v>199000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -862,10 +3210,10 @@
       <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>44851</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>44583</v>
       </c>
       <c r="J7" s="9">
@@ -875,7 +3223,7 @@
         <v>387500</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -897,10 +3245,10 @@
       <c r="G8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>44528</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>44913</v>
       </c>
       <c r="J8" s="9">
@@ -910,7 +3258,7 @@
         <v>319500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -932,7 +3280,7 @@
       <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>44481</v>
       </c>
       <c r="I9" s="4"/>
@@ -941,7 +3289,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -963,10 +3311,10 @@
       <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>44443</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>44211</v>
       </c>
       <c r="J10" s="9">
@@ -976,7 +3324,7 @@
         <v>199500</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -998,10 +3346,10 @@
       <c r="G11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>44497</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>44609</v>
       </c>
       <c r="J11" s="9">
@@ -1011,7 +3359,7 @@
         <v>277000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1033,7 +3381,7 @@
       <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>44418</v>
       </c>
       <c r="I12" s="4"/>
@@ -1042,7 +3390,7 @@
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1064,10 +3412,10 @@
       <c r="G13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>44498</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <v>44589</v>
       </c>
       <c r="J13" s="9">
@@ -1077,14 +3425,14 @@
         <v>174300</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="4">
@@ -1099,20 +3447,20 @@
       <c r="G14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>44515</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <v>44573</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>223750</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>219750</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1134,7 +3482,7 @@
       <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>44514</v>
       </c>
       <c r="I15" s="4"/>
@@ -1143,7 +3491,7 @@
       </c>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1165,10 +3513,10 @@
       <c r="G16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>44565</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>44579</v>
       </c>
       <c r="J16" s="9">
@@ -1178,7 +3526,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1200,10 +3548,10 @@
       <c r="G17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <v>44453</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>44557</v>
       </c>
       <c r="J17" s="9">
@@ -1213,7 +3561,7 @@
         <v>419500</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1235,10 +3583,10 @@
       <c r="G18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>44453</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="10">
         <v>44557</v>
       </c>
       <c r="J18" s="9">
@@ -1248,7 +3596,7 @@
         <v>419500</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1270,10 +3618,10 @@
       <c r="G19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="10">
         <v>44453</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="10">
         <v>44557</v>
       </c>
       <c r="J19" s="9">
@@ -1283,7 +3631,7 @@
         <v>419500</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1305,10 +3653,10 @@
       <c r="G20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <v>44449</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="10">
         <v>1460</v>
       </c>
       <c r="J20" s="9">
@@ -1316,7 +3664,7 @@
       </c>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1338,10 +3686,10 @@
       <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <v>44471</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="10">
         <v>44579</v>
       </c>
       <c r="J21" s="9">
@@ -1351,7 +3699,7 @@
         <v>169500</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1373,10 +3721,10 @@
       <c r="G22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <v>44550</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="10">
         <v>44606</v>
       </c>
       <c r="J22" s="9">
@@ -1386,7 +3734,7 @@
         <v>315750</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1408,7 +3756,7 @@
       <c r="G23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <v>44483</v>
       </c>
       <c r="I23" s="4"/>
@@ -1417,7 +3765,7 @@
       </c>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1439,7 +3787,7 @@
       <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <v>44416</v>
       </c>
       <c r="I24" s="4"/>
@@ -1448,7 +3796,7 @@
       </c>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1470,10 +3818,10 @@
       <c r="G25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="10">
         <v>44513</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="10">
         <v>44616</v>
       </c>
       <c r="J25" s="9">
@@ -1483,7 +3831,7 @@
         <v>495000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1505,10 +3853,10 @@
       <c r="G26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="10">
         <v>44413</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="10">
         <v>44575</v>
       </c>
       <c r="J26" s="9">
@@ -1518,7 +3866,7 @@
         <v>362500</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1540,10 +3888,10 @@
       <c r="G27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="10">
         <v>44564</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="10">
         <v>1460</v>
       </c>
       <c r="J27" s="9">
@@ -1551,7 +3899,7 @@
       </c>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1573,7 +3921,7 @@
       <c r="G28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="10">
         <v>44440</v>
       </c>
       <c r="I28" s="4"/>
@@ -1582,7 +3930,7 @@
       </c>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1604,10 +3952,10 @@
       <c r="G29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="10">
         <v>44453</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="10">
         <v>44557</v>
       </c>
       <c r="J29" s="9">
@@ -1617,7 +3965,7 @@
         <v>419500</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -1639,10 +3987,10 @@
       <c r="G30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="10">
         <v>44485</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="10">
         <v>44604</v>
       </c>
       <c r="J30" s="9">
@@ -1652,7 +4000,7 @@
         <v>309750</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1674,7 +4022,7 @@
       <c r="G31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="10">
         <v>44430</v>
       </c>
       <c r="I31" s="4"/>
@@ -1683,7 +4031,7 @@
       </c>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1705,10 +4053,10 @@
       <c r="G32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="10">
         <v>44571</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="10">
         <v>44616</v>
       </c>
       <c r="J32" s="9">
@@ -1718,7 +4066,7 @@
         <v>302750</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -1740,10 +4088,10 @@
       <c r="G33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="10">
         <v>44499</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="10">
         <v>44606</v>
       </c>
       <c r="J33" s="9">
@@ -1753,7 +4101,7 @@
         <v>429500</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1775,10 +4123,10 @@
       <c r="G34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="10">
         <v>44449</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="10">
         <v>44606</v>
       </c>
       <c r="J34" s="9">
@@ -1788,7 +4136,7 @@
         <v>375500</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -1810,10 +4158,10 @@
       <c r="G35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="10">
         <v>44443</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="10">
         <v>44485</v>
       </c>
       <c r="J35" s="9">
@@ -1823,7 +4171,7 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -1845,10 +4193,10 @@
       <c r="G36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="10">
         <v>44409</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="10">
         <v>44529</v>
       </c>
       <c r="J36" s="9">
@@ -1858,7 +4206,7 @@
         <v>158500</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -1880,10 +4228,10 @@
       <c r="G37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="10">
         <v>44413</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="10">
         <v>44540</v>
       </c>
       <c r="J37" s="9">
@@ -1893,7 +4241,7 @@
         <v>276500</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -1915,10 +4263,10 @@
       <c r="G38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="10">
         <v>44379</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="10">
         <v>44616</v>
       </c>
       <c r="J38" s="9">
@@ -1928,7 +4276,7 @@
         <v>175500</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,10 +4298,10 @@
       <c r="G39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="10">
         <v>44431</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="10">
         <v>44577</v>
       </c>
       <c r="J39" s="9">
@@ -1963,7 +4311,7 @@
         <v>431750</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -1985,10 +4333,10 @@
       <c r="G40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="10">
         <v>44395</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="10">
         <v>44540</v>
       </c>
       <c r="J40" s="9">
@@ -1998,7 +4346,7 @@
         <v>342500</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -2020,10 +4368,10 @@
       <c r="G41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="10">
         <v>44430</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="10">
         <v>44548</v>
       </c>
       <c r="J41" s="9">
@@ -2033,7 +4381,7 @@
         <v>422500</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -2055,7 +4403,7 @@
       <c r="G42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="10">
         <v>44515</v>
       </c>
       <c r="I42" s="4"/>
@@ -2064,7 +4412,7 @@
       </c>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -2086,7 +4434,7 @@
       <c r="G43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="10">
         <v>44471</v>
       </c>
       <c r="I43" s="4"/>
@@ -2095,7 +4443,7 @@
       </c>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,10 +4465,10 @@
       <c r="G44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="10">
         <v>44453</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="10">
         <v>44557</v>
       </c>
       <c r="J44" s="9">
@@ -2130,7 +4478,7 @@
         <v>419500</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2152,10 +4500,10 @@
       <c r="G45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="10">
         <v>44422</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="10">
         <v>44587</v>
       </c>
       <c r="J45" s="9">
@@ -2165,7 +4513,7 @@
         <v>298500</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2187,10 +4535,10 @@
       <c r="G46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="10">
         <v>44387</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="10">
         <v>44582</v>
       </c>
       <c r="J46" s="9">
@@ -2200,7 +4548,7 @@
         <v>330500</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2222,10 +4570,10 @@
       <c r="G47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="10">
         <v>44410</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="10">
         <v>44540</v>
       </c>
       <c r="J47" s="9">
@@ -2235,7 +4583,7 @@
         <v>383500</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2257,10 +4605,10 @@
       <c r="G48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="10">
         <v>44464</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="10">
         <v>44594</v>
       </c>
       <c r="J48" s="9">
@@ -2270,7 +4618,7 @@
         <v>319500</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -2292,10 +4640,10 @@
       <c r="G49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="10">
         <v>44412</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="10">
         <v>44515</v>
       </c>
       <c r="J49" s="9">
@@ -2305,7 +4653,7 @@
         <v>365500</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2327,7 +4675,7 @@
       <c r="G50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="10">
         <v>44390</v>
       </c>
       <c r="I50" s="4"/>
@@ -2336,7 +4684,7 @@
       </c>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,10 +4706,10 @@
       <c r="G51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="10">
         <v>44370</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="10">
         <v>44564</v>
       </c>
       <c r="J51" s="9">
@@ -2371,7 +4719,7 @@
         <v>304500</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2393,10 +4741,10 @@
       <c r="G52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="10">
         <v>44483</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="10">
         <v>44596</v>
       </c>
       <c r="J52" s="9">
@@ -2406,7 +4754,7 @@
         <v>203900</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2428,7 +4776,7 @@
       <c r="G53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="10">
         <v>44380</v>
       </c>
       <c r="I53" s="4"/>
@@ -2437,7 +4785,7 @@
       </c>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
@@ -2459,10 +4807,10 @@
       <c r="G54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="10">
         <v>44453</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="10">
         <v>44557</v>
       </c>
       <c r="J54" s="9">
@@ -2472,7 +4820,7 @@
         <v>419500</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -2494,10 +4842,10 @@
       <c r="G55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="10">
         <v>44439</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="10">
         <v>44473</v>
       </c>
       <c r="J55" s="9">
@@ -2507,7 +4855,7 @@
         <v>209500</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -2529,10 +4877,10 @@
       <c r="G56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="10">
         <v>44480</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="10">
         <v>44575</v>
       </c>
       <c r="J56" s="9">
@@ -2542,7 +4890,7 @@
         <v>271500</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
@@ -2564,10 +4912,10 @@
       <c r="G57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="10">
         <v>44498</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="10">
         <v>44616</v>
       </c>
       <c r="J57" s="9">
@@ -2577,7 +4925,7 @@
         <v>395000</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -2599,10 +4947,10 @@
       <c r="G58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="10">
         <v>44352</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="10">
         <v>44583</v>
       </c>
       <c r="J58" s="9">
@@ -2612,7 +4960,7 @@
         <v>349500</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -2634,10 +4982,10 @@
       <c r="G59" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="10">
         <v>44592</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="10">
         <v>44634</v>
       </c>
       <c r="J59" s="9">

--- a/Week6/Day1/ExerciseXP/WrongMove(ex4).xlsx
+++ b/Week6/Day1/ExerciseXP/WrongMove(ex4).xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margotiamanova/Desktop/DI-Bootcamp/Week6/Day1/ExerciseXP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075337C-2587-F94F-9582-AB2392FB227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374790D1-CFC4-6942-97D4-581F33AD3797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="Properties" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId3"/>
+    <pivotCache cacheId="13" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
   <si>
     <t>PostCode</t>
   </si>
@@ -271,25 +271,16 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of Field1</t>
-  </si>
-  <si>
     <t>Sum of Total Rooms</t>
   </si>
   <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Total Sum of Field1</t>
-  </si>
-  <si>
-    <t>Total Sum of Total Rooms</t>
-  </si>
-  <si>
     <t>Group1</t>
   </si>
   <si>
-    <t>Group1 Total</t>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Count of Garden Size</t>
   </si>
 </sst>
 </file>
@@ -366,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -399,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -421,16 +409,72 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45732.718198263887" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="56" xr:uid="{D09D0692-0969-704A-9549-C60BC2ECCA0B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45732.821695833336" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="56" xr:uid="{CB83F0DC-982A-0C45-AABE-67A8051A5ADA}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:K59" sheet="Properties"/>
   </cacheSource>
-  <cacheFields count="14">
+  <cacheFields count="13">
     <cacheField name="PostCode" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="49">
+        <s v="SK13 7AZ"/>
+        <s v="SK22 9GT"/>
+        <s v="SK13 6DD"/>
+        <s v="SK14 8DS"/>
+        <s v="SK13 7CW"/>
+        <s v="SK22 3YT"/>
+        <s v="SK13 4DF"/>
+        <s v="SK14 7AD"/>
+        <s v="SK13 2AA"/>
+        <s v="SK13 5YY"/>
+        <s v="SK14 9FT"/>
+        <s v="SK23 4RF"/>
+        <s v="SK13 1GG"/>
+        <s v="SK13 6YH"/>
+        <s v="SK22 8BN"/>
+        <s v="SK14 7JJ"/>
+        <s v="SK22 3LP"/>
+        <s v="SK13 4DT"/>
+        <s v="SK13 9SS"/>
+        <s v="SK14 6HN"/>
+        <s v="SK23 3KM"/>
+        <s v="SK23 5WW"/>
+        <s v="SK13 8FS"/>
+        <s v="SK13 4RL"/>
+        <s v="SK14 7YT"/>
+        <s v="SK13 5EE"/>
+        <s v="SK23 4VS"/>
+        <s v="SK16 8NV"/>
+        <s v="SK14 3DD"/>
+        <s v="SK13 4DE"/>
+        <s v="SK13 6LK"/>
+        <s v="SK13 9PF"/>
+        <s v="SK14 8BM"/>
+        <s v="SK14 6DH"/>
+        <s v="SK13 3SS"/>
+        <s v="SK13 4AK"/>
+        <s v="SK13 4XC"/>
+        <s v="SK14 6RL"/>
+        <s v="SK13 7PJ"/>
+        <s v="SK13 6FD"/>
+        <s v="SK14 3FD"/>
+        <s v="SK13 2WD"/>
+        <s v="SK22 1XV"/>
+        <s v="SK13 5LS"/>
+        <s v="SK13 6HH"/>
+        <s v="SK14 8GP"/>
+        <s v="SK15 6YW"/>
+        <s v="SK13 4DD"/>
+        <s v="SK13 4RF"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="5">
+        <s v="Detatched"/>
+        <s v="Semi-detatched"/>
+        <s v="Terraced"/>
+        <s v="Bungalow"/>
+        <s v="Flat"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Location" numFmtId="0">
       <sharedItems count="4">
@@ -439,33 +483,24 @@
         <s v="Countryside"/>
         <s v="Remote"/>
       </sharedItems>
-      <fieldGroup par="13"/>
+      <fieldGroup par="12"/>
     </cacheField>
     <cacheField name="Bedrooms" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
-        <n v="4"/>
-        <n v="3"/>
-        <n v="2"/>
-        <n v="1"/>
-        <n v="5"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="Bathrooms" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
-        <n v="2"/>
-        <n v="1"/>
-        <n v="3"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="Reception Rooms" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
-        <n v="3"/>
-        <n v="2"/>
-        <n v="1"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="Garden Size" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="4">
+        <s v="Medium"/>
+        <s v="Small"/>
+        <s v="Large"/>
+        <s v="None"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Date on Market" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-06-05T00:00:00" maxDate="2022-10-18T00:00:00"/>
@@ -479,18 +514,18 @@
     <cacheField name="Sale Price" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="158500" maxValue="495000"/>
     </cacheField>
-    <cacheField name="Field1" numFmtId="0" formula=" 0" databaseField="0"/>
     <cacheField name="Total Rooms" numFmtId="0" formula="Bedrooms +Bathrooms +'Reception Rooms'" databaseField="0"/>
     <cacheField name="Location2" numFmtId="0" databaseField="0">
       <fieldGroup base="2">
         <discretePr count="4">
-          <x v="0"/>
-          <x v="0"/>
+          <x v="1"/>
+          <x v="1"/>
           <x v="0"/>
           <x v="0"/>
         </discretePr>
-        <groupItems count="1">
+        <groupItems count="2">
           <s v="Group1"/>
+          <s v="Group2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -506,728 +541,728 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="56">
   <r>
-    <s v="SK13 7AZ"/>
-    <s v="Detatched"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Medium"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <x v="0"/>
     <d v="2021-11-25T00:00:00"/>
     <m/>
     <n v="345000"/>
     <m/>
   </r>
   <r>
-    <s v="SK22 9GT"/>
-    <s v="Semi-detatched"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
     <x v="1"/>
-    <s v="Small"/>
     <d v="2021-07-17T00:00:00"/>
     <d v="2022-01-31T00:00:00"/>
     <n v="245000"/>
     <n v="238500"/>
   </r>
   <r>
-    <s v="SK13 6DD"/>
-    <s v="Terraced"/>
-    <x v="2"/>
-    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
     <x v="1"/>
-    <x v="1"/>
-    <s v="Small"/>
     <d v="2021-10-23T00:00:00"/>
     <d v="2021-12-18T00:00:00"/>
     <n v="199000"/>
     <n v="199000"/>
   </r>
   <r>
-    <s v="SK14 8DS"/>
-    <s v="Detatched"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2022-10-17T00:00:00"/>
     <d v="2022-01-22T00:00:00"/>
     <n v="398000"/>
     <n v="387500"/>
   </r>
   <r>
-    <s v="SK13 7CW"/>
-    <s v="Semi-detatched"/>
-    <x v="0"/>
+    <x v="4"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-11-28T00:00:00"/>
     <d v="2022-12-18T00:00:00"/>
     <n v="329000"/>
     <n v="319500"/>
   </r>
   <r>
-    <s v="SK22 3YT"/>
-    <s v="Detatched"/>
+    <x v="5"/>
+    <x v="0"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Large"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <x v="2"/>
     <d v="2021-10-12T00:00:00"/>
     <m/>
     <n v="478500"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 4DF"/>
-    <s v="Terraced"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
     <x v="1"/>
-    <x v="1"/>
-    <s v="Small"/>
     <d v="2021-09-04T00:00:00"/>
     <d v="2021-01-15T00:00:00"/>
     <n v="213000"/>
     <n v="199500"/>
   </r>
   <r>
-    <s v="SK14 7AD"/>
-    <s v="Semi-detatched"/>
-    <x v="0"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-10-28T00:00:00"/>
     <d v="2022-02-17T00:00:00"/>
     <n v="278500"/>
     <n v="277000"/>
   </r>
   <r>
-    <s v="SK13 2AA"/>
-    <s v="Semi-detatched"/>
+    <x v="8"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-08-10T00:00:00"/>
     <m/>
     <n v="278500"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 5YY"/>
-    <s v="Terraced"/>
-    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Small"/>
     <d v="2021-10-29T00:00:00"/>
     <d v="2022-01-28T00:00:00"/>
     <n v="176500"/>
     <n v="174300"/>
   </r>
   <r>
-    <s v="SK14 9FT"/>
-    <s v="Bungalow"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-11-15T00:00:00"/>
     <d v="2022-01-12T00:00:00"/>
     <n v="223750"/>
     <n v="219750"/>
   </r>
   <r>
-    <s v="SK23 4RF"/>
-    <s v="Flat"/>
-    <x v="0"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="None"/>
     <d v="2021-11-14T00:00:00"/>
     <m/>
     <n v="135000"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 1GG"/>
-    <s v="Terraced"/>
-    <x v="0"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Small"/>
     <d v="2022-01-04T00:00:00"/>
     <d v="2022-01-18T00:00:00"/>
     <n v="165900"/>
     <n v="168000"/>
   </r>
   <r>
-    <s v="SK13 6YH"/>
-    <s v="Bungalow"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-09-14T00:00:00"/>
     <d v="2021-12-27T00:00:00"/>
     <n v="415500"/>
     <n v="419500"/>
   </r>
   <r>
-    <s v="SK13 6YH"/>
-    <s v="Bungalow"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-09-14T00:00:00"/>
     <d v="2021-12-27T00:00:00"/>
     <n v="415500"/>
     <n v="419500"/>
   </r>
   <r>
-    <s v="SK13 6YH"/>
-    <s v="Bungalow"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-09-14T00:00:00"/>
     <d v="2021-12-27T00:00:00"/>
     <n v="415500"/>
     <n v="419500"/>
   </r>
   <r>
-    <s v="SK13 6YH"/>
-    <s v="Bungalow"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-09-10T00:00:00"/>
     <d v="1903-12-30T00:00:00"/>
     <n v="199500"/>
     <m/>
   </r>
   <r>
-    <s v="SK22 8BN"/>
-    <s v="Flat"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="None"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="3"/>
     <d v="2021-10-02T00:00:00"/>
     <d v="2022-01-18T00:00:00"/>
     <n v="175500"/>
     <n v="169500"/>
   </r>
   <r>
-    <s v="SK14 7JJ"/>
-    <s v="Semi-detatched"/>
-    <x v="2"/>
+    <x v="15"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-12-20T00:00:00"/>
     <d v="2022-02-14T00:00:00"/>
     <n v="319750"/>
     <n v="315750"/>
   </r>
   <r>
-    <s v="SK22 3LP"/>
-    <s v="Bungalow"/>
+    <x v="16"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-10-14T00:00:00"/>
     <m/>
     <n v="289500"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 4DT"/>
-    <s v="Detatched"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Large"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <x v="2"/>
     <d v="2021-08-08T00:00:00"/>
     <m/>
     <n v="525750"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 9SS"/>
-    <s v="Detatched"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-11-13T00:00:00"/>
     <d v="2022-02-24T00:00:00"/>
     <n v="495000"/>
     <n v="495000"/>
   </r>
   <r>
-    <s v="SK14 6HN"/>
-    <s v="Semi-detatched"/>
-    <x v="0"/>
+    <x v="19"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-08-05T00:00:00"/>
     <d v="2022-01-14T00:00:00"/>
     <n v="369500"/>
     <n v="362500"/>
   </r>
   <r>
-    <s v="SK14 6HN"/>
-    <s v="Semi-detatched"/>
+    <x v="19"/>
+    <x v="1"/>
     <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Small"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="1"/>
     <d v="2022-01-03T00:00:00"/>
     <d v="1903-12-30T00:00:00"/>
     <n v="176500"/>
     <m/>
   </r>
   <r>
-    <s v="SK23 3KM"/>
-    <s v="Terraced"/>
+    <x v="20"/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="1"/>
-    <x v="2"/>
-    <s v="Small"/>
     <d v="2021-09-01T00:00:00"/>
     <m/>
     <n v="142500"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 6YH"/>
-    <s v="Bungalow"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-09-14T00:00:00"/>
     <d v="2021-12-27T00:00:00"/>
     <n v="415500"/>
     <n v="419500"/>
   </r>
   <r>
-    <s v="SK23 5WW"/>
-    <s v="Bungalow"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-10-16T00:00:00"/>
     <d v="2022-02-12T00:00:00"/>
     <n v="314250"/>
     <n v="309750"/>
   </r>
   <r>
-    <s v="SK13 8FS"/>
-    <s v="Terraced"/>
-    <x v="2"/>
-    <x v="2"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="1"/>
-    <x v="2"/>
-    <s v="Small"/>
     <d v="2021-08-22T00:00:00"/>
     <m/>
     <n v="178500"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 4RL"/>
-    <s v="Semi-detatched"/>
-    <x v="0"/>
+    <x v="23"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2022-01-10T00:00:00"/>
     <d v="2022-02-24T00:00:00"/>
     <n v="305000"/>
     <n v="302750"/>
   </r>
   <r>
-    <s v="SK14 7YT"/>
-    <s v="Detatched"/>
+    <x v="24"/>
+    <x v="0"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-10-30T00:00:00"/>
     <d v="2022-02-14T00:00:00"/>
     <n v="435000"/>
     <n v="429500"/>
   </r>
   <r>
-    <s v="SK13 5EE"/>
-    <s v="Semi-detatched"/>
-    <x v="2"/>
+    <x v="25"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Medium"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="0"/>
     <d v="2021-09-10T00:00:00"/>
     <d v="2022-02-14T00:00:00"/>
     <n v="385000"/>
     <n v="375500"/>
   </r>
   <r>
-    <s v="SK23 4VS"/>
-    <s v="Detatched"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-09-04T00:00:00"/>
     <d v="2021-10-16T00:00:00"/>
     <n v="405000"/>
     <n v="405000"/>
   </r>
   <r>
-    <s v="SK16 8NV"/>
-    <s v="Terraced"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="27"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="1"/>
-    <x v="2"/>
-    <s v="Small"/>
     <d v="2021-08-01T00:00:00"/>
     <d v="2021-11-29T00:00:00"/>
     <n v="159000"/>
     <n v="158500"/>
   </r>
   <r>
-    <s v="SK14 3DD"/>
-    <s v="Semi-detatched"/>
-    <x v="0"/>
+    <x v="28"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-08-05T00:00:00"/>
     <d v="2021-12-10T00:00:00"/>
     <n v="278000"/>
     <n v="276500"/>
   </r>
   <r>
-    <s v="SK13 4DE"/>
-    <s v="Terraced"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="29"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="1"/>
-    <x v="2"/>
-    <s v="Small"/>
     <d v="2021-07-02T00:00:00"/>
     <d v="2022-02-24T00:00:00"/>
     <n v="178600"/>
     <n v="175500"/>
   </r>
   <r>
-    <s v="SK13 6LK"/>
-    <s v="Detatched"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-08-23T00:00:00"/>
     <d v="2022-01-16T00:00:00"/>
     <n v="435000"/>
     <n v="431750"/>
   </r>
   <r>
-    <s v="SK13 9PF"/>
-    <s v="Semi-detatched"/>
-    <x v="2"/>
+    <x v="31"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-07-18T00:00:00"/>
     <d v="2021-12-10T00:00:00"/>
     <n v="345500"/>
     <n v="342500"/>
   </r>
   <r>
-    <s v="SK14 8BM"/>
-    <s v="Detatched"/>
+    <x v="32"/>
+    <x v="0"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-08-22T00:00:00"/>
     <d v="2021-12-18T00:00:00"/>
     <n v="418500"/>
     <n v="422500"/>
   </r>
   <r>
-    <s v="SK14 6DH"/>
-    <s v="Semi-detatched"/>
-    <x v="2"/>
+    <x v="33"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-11-15T00:00:00"/>
     <m/>
     <n v="375500"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 3SS"/>
-    <s v="Terraced"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="34"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="1"/>
-    <x v="2"/>
-    <s v="Small"/>
     <d v="2021-10-02T00:00:00"/>
     <m/>
     <n v="169500"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 6YH"/>
-    <s v="Bungalow"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-09-14T00:00:00"/>
     <d v="2021-12-27T00:00:00"/>
     <n v="415500"/>
     <n v="419500"/>
   </r>
   <r>
-    <s v="SK13 4AK"/>
-    <s v="Bungalow"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="35"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-08-14T00:00:00"/>
     <d v="2022-01-26T00:00:00"/>
     <n v="298500"/>
     <n v="298500"/>
   </r>
   <r>
-    <s v="SK13 4XC"/>
-    <s v="Semi-detatched"/>
-    <x v="2"/>
+    <x v="36"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-07-10T00:00:00"/>
     <d v="2022-01-21T00:00:00"/>
     <n v="331750"/>
     <n v="330500"/>
   </r>
   <r>
-    <s v="SK14 6RL"/>
-    <s v="Detatched"/>
+    <x v="37"/>
+    <x v="0"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-08-02T00:00:00"/>
     <d v="2021-12-10T00:00:00"/>
     <n v="385500"/>
     <n v="383500"/>
   </r>
   <r>
-    <s v="SK13 7PJ"/>
-    <s v="Semi-detatched"/>
-    <x v="2"/>
+    <x v="38"/>
     <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-09-25T00:00:00"/>
     <d v="2022-02-02T00:00:00"/>
     <n v="322500"/>
     <n v="319500"/>
   </r>
   <r>
-    <s v="SK13 6FD"/>
-    <s v="Semi-detatched"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Medium"/>
+    <x v="39"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="0"/>
     <d v="2021-08-04T00:00:00"/>
     <d v="2021-11-15T00:00:00"/>
     <n v="365500"/>
     <n v="365500"/>
   </r>
   <r>
-    <s v="SK14 3FD"/>
-    <s v="Detatched"/>
-    <x v="0"/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Small"/>
     <d v="2021-07-13T00:00:00"/>
     <m/>
     <n v="312750"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 2WD"/>
-    <s v="Detatched"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-06-23T00:00:00"/>
     <d v="2022-01-03T00:00:00"/>
     <n v="309500"/>
     <n v="304500"/>
   </r>
   <r>
-    <s v="SK22 1XV"/>
-    <s v="Terraced"/>
-    <x v="2"/>
-    <x v="2"/>
+    <x v="42"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="1"/>
-    <x v="2"/>
-    <s v="Small"/>
     <d v="2021-10-14T00:00:00"/>
     <d v="2022-02-04T00:00:00"/>
     <n v="204500"/>
     <n v="203900"/>
   </r>
   <r>
-    <s v="SK13 5LS"/>
-    <s v="Semi-detatched"/>
-    <x v="0"/>
+    <x v="43"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="Medium"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-07-03T00:00:00"/>
     <m/>
     <n v="225500"/>
     <m/>
   </r>
   <r>
-    <s v="SK13 6YH"/>
-    <s v="Bungalow"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-09-14T00:00:00"/>
     <d v="2021-12-27T00:00:00"/>
     <n v="415500"/>
     <n v="419500"/>
   </r>
   <r>
-    <s v="SK13 6HH"/>
-    <s v="Semi-detatched"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="44"/>
     <x v="1"/>
-    <s v="Medium"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
     <d v="2021-08-31T00:00:00"/>
     <d v="2021-10-04T00:00:00"/>
     <n v="209500"/>
     <n v="209500"/>
   </r>
   <r>
-    <s v="SK14 8GP"/>
-    <s v="Bungalow"/>
+    <x v="45"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-10-11T00:00:00"/>
     <d v="2022-01-14T00:00:00"/>
     <n v="272500"/>
     <n v="271500"/>
   </r>
   <r>
-    <s v="SK15 6YW"/>
-    <s v="Detatched"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Large"/>
+    <x v="46"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="2"/>
     <d v="2021-10-29T00:00:00"/>
     <d v="2022-02-24T00:00:00"/>
     <n v="389500"/>
     <n v="395000"/>
   </r>
   <r>
-    <s v="SK13 4DD"/>
-    <s v="Semi-detatched"/>
-    <x v="0"/>
+    <x v="47"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
-    <s v="Medium"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="0"/>
     <d v="2021-06-05T00:00:00"/>
     <d v="2022-01-22T00:00:00"/>
     <n v="348500"/>
     <n v="349500"/>
   </r>
   <r>
-    <s v="SK13 4RF"/>
-    <s v="Bungalow"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="48"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="1"/>
-    <x v="2"/>
-    <s v="Small"/>
     <d v="2022-01-31T00:00:00"/>
     <d v="2022-03-14T00:00:00"/>
     <n v="299950"/>
@@ -1237,12 +1272,74 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DD47ADE-A6CD-A042-B38C-F60BC4296F8A}" name="PivotTable7" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:M35" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFEA8CA5-EA12-8B43-8C93-480105B7BFFB}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0">
+      <items count="50">
+        <item x="12"/>
+        <item x="8"/>
+        <item x="41"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="47"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="48"/>
+        <item x="23"/>
+        <item x="36"/>
+        <item x="25"/>
+        <item x="43"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="30"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="38"/>
+        <item x="22"/>
+        <item x="31"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="40"/>
+        <item x="33"/>
+        <item x="19"/>
+        <item x="37"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="45"/>
+        <item x="10"/>
+        <item x="46"/>
+        <item x="27"/>
+        <item x="42"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="2"/>
         <item x="3"/>
@@ -1251,190 +1348,72 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
         <item x="3"/>
-        <item x="2"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
+    <pivotField name="Urban" axis="axisRow" showAll="0">
+      <items count="3">
         <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="3">
-    <field x="3"/>
-    <field x="5"/>
-    <field x="4"/>
+  <rowFields count="2">
+    <field x="12"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="29">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="3">
+  <colFields count="1">
     <field x="-2"/>
-    <field x="13"/>
-    <field x="2"/>
   </colFields>
-  <colItems count="12">
+  <colItems count="2">
     <i>
-      <x/>
-      <x/>
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i t="default" r="1">
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
-      <x/>
-      <x/>
-    </i>
-    <i r="2" i="1">
-      <x v="1"/>
-    </i>
-    <i r="2" i="1">
-      <x v="2"/>
-    </i>
-    <i r="2" i="1">
-      <x v="3"/>
-    </i>
-    <i t="default" r="1" i="1">
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Field1" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Total Rooms" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total Rooms" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Count of Garden Size" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1744,1279 +1723,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD853B3-6D11-B64C-BF8E-76DCDA3197BF}">
-  <dimension ref="A3:M35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3353310F-EDD5-674D-A1C1-DC5FDF5D5B79}">
+  <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="14">
+        <v>203</v>
+      </c>
+      <c r="C4" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="14">
+        <v>148</v>
+      </c>
+      <c r="C5" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="14">
+        <v>55</v>
+      </c>
+      <c r="C6" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" s="14">
+        <v>157</v>
+      </c>
+      <c r="C7" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B8" s="14">
+        <v>145</v>
+      </c>
+      <c r="C8" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>3</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>3</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>3</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <v>3</v>
-      </c>
-      <c r="L8" s="15">
-        <v>0</v>
-      </c>
-      <c r="M8" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>3</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15">
-        <v>3</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0</v>
-      </c>
-      <c r="M9" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>2</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>25</v>
-      </c>
-      <c r="H10" s="15">
-        <v>9</v>
-      </c>
-      <c r="I10" s="15">
-        <v>31</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15">
-        <v>65</v>
-      </c>
-      <c r="L10" s="15">
-        <v>0</v>
-      </c>
-      <c r="M10" s="15">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>8</v>
-      </c>
-      <c r="H11" s="15">
-        <v>9</v>
-      </c>
-      <c r="I11" s="15">
-        <v>20</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="15">
-        <v>37</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
-      <c r="M11" s="15">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15">
-        <v>0</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <v>8</v>
-      </c>
-      <c r="H12" s="15">
-        <v>4</v>
-      </c>
-      <c r="I12" s="15">
-        <v>20</v>
-      </c>
-      <c r="J12" s="15">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
-        <v>32</v>
-      </c>
-      <c r="L12" s="15">
-        <v>0</v>
-      </c>
-      <c r="M12" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>2</v>
-      </c>
-      <c r="B13" s="15">
-        <v>0</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>5</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>5</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>2</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <v>17</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <v>11</v>
-      </c>
-      <c r="J14" s="15">
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <v>28</v>
-      </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
-      <c r="M14" s="15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>1</v>
-      </c>
-      <c r="B15" s="15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>5</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>5</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
-        <v>10</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>2</v>
-      </c>
-      <c r="B16" s="15">
-        <v>0</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="B9" s="14">
         <v>12</v>
       </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>6</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>18</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>3</v>
-      </c>
-      <c r="B17" s="15">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>97</v>
-      </c>
-      <c r="H17" s="15">
-        <v>21</v>
-      </c>
-      <c r="I17" s="15">
-        <v>71</v>
-      </c>
-      <c r="J17" s="15">
-        <v>12</v>
-      </c>
-      <c r="K17" s="15">
-        <v>201</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
-      </c>
-      <c r="M17" s="15">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15">
-        <v>0</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>6</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
-        <v>12</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>18</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
-        <v>2</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
-        <v>6</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15">
-        <v>12</v>
-      </c>
-      <c r="J19" s="15">
-        <v>0</v>
-      </c>
-      <c r="K19" s="15">
-        <v>18</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>2</v>
-      </c>
-      <c r="B20" s="15">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
-        <v>91</v>
-      </c>
-      <c r="H20" s="15">
-        <v>21</v>
-      </c>
-      <c r="I20" s="15">
-        <v>59</v>
-      </c>
-      <c r="J20" s="15">
-        <v>12</v>
-      </c>
-      <c r="K20" s="15">
-        <v>183</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
-        <v>1</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15">
-        <v>24</v>
-      </c>
-      <c r="J21" s="15">
-        <v>12</v>
-      </c>
-      <c r="K21" s="15">
-        <v>36</v>
-      </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-      <c r="M21" s="15">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
-        <v>2</v>
-      </c>
-      <c r="B22" s="15">
-        <v>0</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
-        <v>91</v>
-      </c>
-      <c r="H22" s="15">
-        <v>21</v>
-      </c>
-      <c r="I22" s="15">
-        <v>35</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
-        <v>147</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>4</v>
-      </c>
-      <c r="B23" s="15">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
-        <v>16</v>
-      </c>
-      <c r="H23" s="15">
-        <v>25</v>
-      </c>
-      <c r="I23" s="15">
-        <v>40</v>
-      </c>
-      <c r="J23" s="15">
-        <v>0</v>
-      </c>
-      <c r="K23" s="15">
-        <v>81</v>
-      </c>
-      <c r="L23" s="15">
-        <v>0</v>
-      </c>
-      <c r="M23" s="15">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
-        <v>1</v>
-      </c>
-      <c r="B24" s="15">
-        <v>0</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15">
-        <v>7</v>
-      </c>
-      <c r="J24" s="15">
-        <v>0</v>
-      </c>
-      <c r="K24" s="15">
-        <v>7</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>2</v>
-      </c>
-      <c r="B25" s="15">
-        <v>0</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
-      <c r="I25" s="15">
-        <v>7</v>
-      </c>
-      <c r="J25" s="15">
-        <v>0</v>
-      </c>
-      <c r="K25" s="15">
-        <v>7</v>
-      </c>
-      <c r="L25" s="15">
-        <v>0</v>
-      </c>
-      <c r="M25" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>2</v>
-      </c>
-      <c r="B26" s="15">
-        <v>0</v>
-      </c>
-      <c r="C26" s="15">
-        <v>0</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15">
-        <v>16</v>
-      </c>
-      <c r="H26" s="15">
-        <v>16</v>
-      </c>
-      <c r="I26" s="15">
-        <v>24</v>
-      </c>
-      <c r="J26" s="15">
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="14">
+        <v>360</v>
+      </c>
+      <c r="C10" s="14">
         <v>56</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
-        <v>1</v>
-      </c>
-      <c r="B27" s="15">
-        <v>0</v>
-      </c>
-      <c r="C27" s="15">
-        <v>0</v>
-      </c>
-      <c r="D27" s="15">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0</v>
-      </c>
-      <c r="I27" s="15">
-        <v>7</v>
-      </c>
-      <c r="J27" s="15">
-        <v>0</v>
-      </c>
-      <c r="K27" s="15">
-        <v>7</v>
-      </c>
-      <c r="L27" s="15">
-        <v>0</v>
-      </c>
-      <c r="M27" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
-        <v>2</v>
-      </c>
-      <c r="B28" s="15">
-        <v>0</v>
-      </c>
-      <c r="C28" s="15">
-        <v>0</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
-        <v>16</v>
-      </c>
-      <c r="H28" s="15">
-        <v>16</v>
-      </c>
-      <c r="I28" s="15">
-        <v>8</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
-        <v>40</v>
-      </c>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
-        <v>3</v>
-      </c>
-      <c r="B29" s="15">
-        <v>0</v>
-      </c>
-      <c r="C29" s="15">
-        <v>0</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="15">
-        <v>0</v>
-      </c>
-      <c r="I29" s="15">
-        <v>9</v>
-      </c>
-      <c r="J29" s="15">
-        <v>0</v>
-      </c>
-      <c r="K29" s="15">
-        <v>9</v>
-      </c>
-      <c r="L29" s="15">
-        <v>0</v>
-      </c>
-      <c r="M29" s="15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
-        <v>3</v>
-      </c>
-      <c r="B30" s="15">
-        <v>0</v>
-      </c>
-      <c r="C30" s="15">
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
-        <v>9</v>
-      </c>
-      <c r="I30" s="15">
-        <v>9</v>
-      </c>
-      <c r="J30" s="15">
-        <v>0</v>
-      </c>
-      <c r="K30" s="15">
-        <v>18</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="14">
-        <v>2</v>
-      </c>
-      <c r="B31" s="15">
-        <v>0</v>
-      </c>
-      <c r="C31" s="15">
-        <v>0</v>
-      </c>
-      <c r="D31" s="15">
-        <v>0</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0</v>
-      </c>
-      <c r="H31" s="15">
-        <v>9</v>
-      </c>
-      <c r="I31" s="15">
-        <v>9</v>
-      </c>
-      <c r="J31" s="15">
-        <v>0</v>
-      </c>
-      <c r="K31" s="15">
-        <v>18</v>
-      </c>
-      <c r="L31" s="15">
-        <v>0</v>
-      </c>
-      <c r="M31" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>5</v>
-      </c>
-      <c r="B32" s="15">
-        <v>0</v>
-      </c>
-      <c r="C32" s="15">
-        <v>0</v>
-      </c>
-      <c r="D32" s="15">
-        <v>0</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="F32" s="15">
-        <v>0</v>
-      </c>
-      <c r="G32" s="15">
-        <v>10</v>
-      </c>
-      <c r="H32" s="15">
-        <v>0</v>
-      </c>
-      <c r="I32" s="15">
-        <v>0</v>
-      </c>
-      <c r="J32" s="15">
-        <v>0</v>
-      </c>
-      <c r="K32" s="15">
-        <v>10</v>
-      </c>
-      <c r="L32" s="15">
-        <v>0</v>
-      </c>
-      <c r="M32" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
-        <v>3</v>
-      </c>
-      <c r="B33" s="15">
-        <v>0</v>
-      </c>
-      <c r="C33" s="15">
-        <v>0</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0</v>
-      </c>
-      <c r="G33" s="15">
-        <v>10</v>
-      </c>
-      <c r="H33" s="15">
-        <v>0</v>
-      </c>
-      <c r="I33" s="15">
-        <v>0</v>
-      </c>
-      <c r="J33" s="15">
-        <v>0</v>
-      </c>
-      <c r="K33" s="15">
-        <v>10</v>
-      </c>
-      <c r="L33" s="15">
-        <v>0</v>
-      </c>
-      <c r="M33" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
-        <v>2</v>
-      </c>
-      <c r="B34" s="15">
-        <v>0</v>
-      </c>
-      <c r="C34" s="15">
-        <v>0</v>
-      </c>
-      <c r="D34" s="15">
-        <v>0</v>
-      </c>
-      <c r="E34" s="15">
-        <v>0</v>
-      </c>
-      <c r="F34" s="15">
-        <v>0</v>
-      </c>
-      <c r="G34" s="15">
-        <v>10</v>
-      </c>
-      <c r="H34" s="15">
-        <v>0</v>
-      </c>
-      <c r="I34" s="15">
-        <v>0</v>
-      </c>
-      <c r="J34" s="15">
-        <v>0</v>
-      </c>
-      <c r="K34" s="15">
-        <v>10</v>
-      </c>
-      <c r="L34" s="15">
-        <v>0</v>
-      </c>
-      <c r="M34" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="15">
-        <v>0</v>
-      </c>
-      <c r="C35" s="15">
-        <v>0</v>
-      </c>
-      <c r="D35" s="15">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
-        <v>148</v>
-      </c>
-      <c r="H35" s="15">
-        <v>55</v>
-      </c>
-      <c r="I35" s="15">
-        <v>145</v>
-      </c>
-      <c r="J35" s="15">
-        <v>12</v>
-      </c>
-      <c r="K35" s="15">
-        <v>360</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
